--- a/社融.xlsx
+++ b/社融.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\wkzq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DE244F-8AE0-4599-96EA-3C6D749FC9CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E413282-50FB-44B6-9ACC-78EE195F06AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1321,7 +1321,7 @@
   <dimension ref="A1:M388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/社融.xlsx
+++ b/社融.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\wkzq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E413282-50FB-44B6-9ACC-78EE195F06AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1DC217-AF0B-4570-A061-B6F473099F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1320,7 +1320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M388"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
       <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>

--- a/社融.xlsx
+++ b/社融.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\wkzq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1DC217-AF0B-4570-A061-B6F473099F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2492CA-56E7-4D2F-A3BF-3C2D0999F36D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1320,7 +1320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
       <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
